--- a/biology/Botanique/Ambelania/Ambelania.xlsx
+++ b/biology/Botanique/Ambelania/Ambelania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambelania est un genre d'arbres sud-américains, appartenant à la famille des Apocynaceae, et comptant entre 3 et 24 espèces. 
 L'espèce type est Ambelania acida Aubl.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambelania regroupe des arbres du sous-bois. Le tronc est cylindrique. Les tiges sont épaisses, glabre, opposées, sans piquant, cylindriques mais aplaties aux nœuds. Un latex blanc, abondant s'écoule en cas de blessure. Des collétères interpetiolaires forment une crête distincte.
 Les feuilles sont opposées. Les pétioles sont dépourvus de collétères. 
@@ -526,7 +540,7 @@
 Les étamines sont insérées à la base du tube de la corolle, détachées du sommet du style.
 L'ovaire est un syncarpe à 2 loges contenant de nombreux ovules.
 Les fruits sont des baies, étroitement ellipsoïdes, pyriformes, à pulpe blanche comestible, et produisent abondant un latex blancs. 
-Les graines sont brunes, ellipsoïdes, glabres, avec le testa alvéolé, l'embryon droit, et les cotylédons très courts[2].
+Les graines sont brunes, ellipsoïdes, glabres, avec le testa alvéolé, l'embryon droit, et les cotylédons très courts.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « AMBELANIA. (Tabula 104.)
 CAL. Perianthium monophyllum, breviſſimum, carnoſum, quinque-partitum, laciniis acutis. 
 COR. monopetala, ſubalbida ; tubus cylindraccus, baſi ampliatus, receptaculo germinis inſidens ; limbus patens, quinquehdus, lobis inasqualibus, undulatis, ſubrotundis, acutis. 
@@ -593,13 +609,15 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (17 janvier 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (17 janvier 2022) :
 Ambelania acida Aubl.
 Ambelania duckei Markgr.
 Ambelania occidentalis Zarucchi
-Selon GBIF       (17 janvier 2022)[5] :
+Selon GBIF       (17 janvier 2022) :
 Ambelania acida Aubl.
 Ambelania duckei Markgr.
 Ambelania macrosiphon Huber
@@ -607,7 +625,7 @@
 Ambelania occidentalis Zarucchi
 Kasailo racemosa Dennst.
 Willughbeia celebica Blume
-Selon Tropicos                                           (26 mai 2013)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Ambelania acida Aubl., 1775
 Ambelania camporum Glaz., 1910
 Ambelania cucumerina Miers, 1878
@@ -615,7 +633,7 @@
 Ambelania duckei Markgr., 1935
 Ambelania edulis (Roxb.) J. Presl, 1846
 Ambelania grandiflora Huber, 1902
-Ambelania lanceolata Markgr., 1971 [1972]
+Ambelania lanceolata Markgr., 1971 
 Ambelania laxa (Benth.) Müll. Arg., 1860
 Ambelania longiloba Markgr., 1971
 Ambelania lopezii Woodson, 1951
@@ -623,7 +641,7 @@
 Ambelania macrophylla Müll. Arg., 1860
 Ambelania macrosiphon Huber, 
 Ambelania markgrafiana Monach., 1945
-Ambelania occidentalis Zarucchi, 1987 [1988]
+Ambelania occidentalis Zarucchi, 1987 
 Ambelania oleifolia Monach., 1958
 Ambelania pantchenkoana Markgr., 1975
 Ambelania parviflora Markgr., 1983
